--- a/VersionRecords/Version 5.3.8.5 20170414/版本Bug和特性计划及评审表v5.3.8.5.xlsx
+++ b/VersionRecords/Version 5.3.8.5 20170414/版本Bug和特性计划及评审表v5.3.8.5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1680" windowWidth="23440" windowHeight="13360" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="2160" yWindow="1680" windowWidth="23440" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -383,10 +383,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>partnerPC,parnter,lts，renter</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>江东</t>
     <rPh sb="0" eb="1">
       <t>jiang'dong</t>
@@ -429,6 +425,10 @@
   </si>
   <si>
     <t>sysconfig.risk_MR_JE_01=50000</t>
+  </si>
+  <si>
+    <t>partnerPC,papp,lts，renter</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1175,6 +1175,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1201,15 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1241,7 +1241,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1584,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1764,7 +1764,7 @@
         <v>71</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>73</v>
@@ -1780,16 +1780,16 @@
       </c>
       <c r="K3" s="55"/>
       <c r="L3" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="55" t="s">
         <v>104</v>
-      </c>
-      <c r="M3" s="55" t="s">
-        <v>105</v>
       </c>
       <c r="N3" s="55" t="s">
         <v>76</v>
       </c>
       <c r="O3" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P3" s="77" t="s">
         <v>78</v>
@@ -1801,7 +1801,7 @@
         <v>79</v>
       </c>
       <c r="S3" s="95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="53"/>
@@ -6100,19 +6100,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
@@ -6150,8 +6150,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -6163,8 +6163,8 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -6176,8 +6176,8 @@
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -6189,8 +6189,8 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -6202,8 +6202,8 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -6215,8 +6215,8 @@
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -6228,8 +6228,8 @@
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -6241,8 +6241,8 @@
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="99"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -6303,36 +6303,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="102"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6383,22 +6383,22 @@
         <v>97</v>
       </c>
       <c r="C4" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>109</v>
       </c>
       <c r="E4" s="92" t="s">
         <v>98</v>
       </c>
       <c r="F4" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="H4" s="90" t="s">
         <v>111</v>
-      </c>
-      <c r="H4" s="90" t="s">
-        <v>112</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90" t="s">
@@ -6414,70 +6414,70 @@
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="105" t="s">
+      <c r="G5" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105" t="s">
+      <c r="H5" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="98" t="s">
         <v>100</v>
       </c>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="105" t="s">
+      <c r="C6" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105" t="s">
+      <c r="I6" s="96"/>
+      <c r="J6" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="98" t="s">
         <v>100</v>
       </c>
       <c r="M6" s="9"/>
@@ -6679,36 +6679,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="102"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6759,22 +6759,22 @@
         <v>97</v>
       </c>
       <c r="C4" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>109</v>
       </c>
       <c r="E4" s="92" t="s">
         <v>98</v>
       </c>
       <c r="F4" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="H4" s="90" t="s">
         <v>111</v>
-      </c>
-      <c r="H4" s="90" t="s">
-        <v>112</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90" t="s">
@@ -6790,70 +6790,70 @@
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="105" t="s">
+      <c r="G5" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105" t="s">
+      <c r="H5" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="98" t="s">
         <v>100</v>
       </c>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="105" t="s">
+      <c r="C6" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105" t="s">
+      <c r="I6" s="96"/>
+      <c r="J6" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="98" t="s">
         <v>100</v>
       </c>
       <c r="M6" s="9"/>
@@ -7055,36 +7055,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="102"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7135,22 +7135,22 @@
         <v>97</v>
       </c>
       <c r="C4" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>109</v>
       </c>
       <c r="E4" s="92" t="s">
         <v>98</v>
       </c>
       <c r="F4" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="H4" s="90" t="s">
         <v>111</v>
-      </c>
-      <c r="H4" s="90" t="s">
-        <v>112</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90" t="s">
@@ -7166,70 +7166,70 @@
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="105" t="s">
+      <c r="G5" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105" t="s">
+      <c r="H5" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="98" t="s">
         <v>100</v>
       </c>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="105" t="s">
+      <c r="C6" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105" t="s">
+      <c r="I6" s="96"/>
+      <c r="J6" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="98" t="s">
         <v>100</v>
       </c>
       <c r="M6" s="9"/>
@@ -7411,7 +7411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:L6"/>
     </sheetView>
   </sheetViews>
@@ -7433,36 +7433,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="102"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7513,22 +7513,22 @@
         <v>97</v>
       </c>
       <c r="C4" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>109</v>
       </c>
       <c r="E4" s="92" t="s">
         <v>98</v>
       </c>
       <c r="F4" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="H4" s="90" t="s">
         <v>111</v>
-      </c>
-      <c r="H4" s="90" t="s">
-        <v>112</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90" t="s">
@@ -7544,70 +7544,70 @@
     </row>
     <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="105" t="s">
+      <c r="G5" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105" t="s">
+      <c r="H5" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="98" t="s">
         <v>100</v>
       </c>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="105" t="s">
+      <c r="C6" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105" t="s">
+      <c r="I6" s="96"/>
+      <c r="J6" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="98" t="s">
         <v>100</v>
       </c>
       <c r="M6" s="9"/>

--- a/VersionRecords/Version 5.3.8.5 20170414/版本Bug和特性计划及评审表v5.3.8.5.xlsx
+++ b/VersionRecords/Version 5.3.8.5 20170414/版本Bug和特性计划及评审表v5.3.8.5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1680" windowWidth="23440" windowHeight="13360"/>
+    <workbookView xWindow="32740" yWindow="3200" windowWidth="23440" windowHeight="13360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="139">
   <si>
     <t>No</t>
   </si>
@@ -430,12 +430,128 @@
     <t>partnerPC,papp,lts，renter</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中心数据重新初始化</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong'gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'h</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>mogoda</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <rPh sb="0" eb="1">
+      <t>chen'qi</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+  </si>
+  <si>
+    <t>张勋</t>
+    <rPh sb="0" eb="1">
+      <t>s'c</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决月付同步还款状态的问题</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterApp、
+renterembed
+tasktracker</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYF-472</t>
+  </si>
+  <si>
+    <t>5.3.8.5</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>JG组</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融报表数据统计</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.LoanStatisticsTask</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanStatisticsTask</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoanStatisticsTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日2点执行</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -617,6 +733,13 @@
       <name val="微软雅黑"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -680,7 +803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -849,6 +972,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -886,7 +1022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,6 +1346,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1584,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1810,52 +1955,124 @@
       <c r="X3" s="70"/>
     </row>
     <row r="4" spans="1:24" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="75">
+        <v>1</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="56">
+        <v>42839</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="56">
+        <v>42839</v>
+      </c>
       <c r="K4" s="55"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
+      <c r="L4" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="56">
+        <v>42839</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
       <c r="U4" s="53"/>
-      <c r="V4" s="64"/>
+      <c r="V4" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="W4" s="69"/>
       <c r="X4" s="70"/>
     </row>
-    <row r="5" spans="1:24" s="43" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
+    <row r="5" spans="1:24" s="43" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A5" s="75">
+        <v>1</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="108">
+        <v>42839</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="108">
+        <v>42839</v>
+      </c>
       <c r="K5" s="55"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
+      <c r="L5" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="108">
+        <v>42839</v>
+      </c>
+      <c r="R5" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="T5" s="110">
+        <v>10950</v>
+      </c>
       <c r="U5" s="53"/>
       <c r="V5" s="64"/>
       <c r="W5" s="71"/>
@@ -5889,6 +6106,7 @@
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S5" r:id="rId3" display="http://192.168.60.204/browse/JRYF-472"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5899,8 +6117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6034,24 +6252,54 @@
       <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
+      <c r="A3" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="85" t="s">
+        <v>134</v>
+      </c>
       <c r="K3" s="39"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
+      <c r="L3" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" s="87"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
